--- a/Utils/Mydata.xlsx
+++ b/Utils/Mydata.xlsx
@@ -32,13 +32,13 @@
     <t>IT</t>
   </si>
   <si>
-    <t>Raj</t>
+    <t>Raja</t>
   </si>
   <si>
-    <t>27</t>
+    <t>29</t>
   </si>
   <si>
-    <t>RPA</t>
+    <t>RPM</t>
   </si>
 </sst>
 </file>
